--- a/document/Issue Report.xlsx
+++ b/document/Issue Report.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Library/CloudStorage/OneDrive-ĐạihọcFPT-FPTUniversity/TRN.FU/Materials/ZLabPrjs/Fall-2022_SWP391/Guide_Student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8DF2928E-B8A3-CC40-BE8B-0845366596B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF57A12-EF82-0746-9C3D-96A5D9A7D77C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F21F3-1001-4E11-A90A-D8A8A5FBCF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -44,9 +36,6 @@
     <t>Issue ID</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -68,104 +57,116 @@
     <t>Functions/Screens</t>
   </si>
   <si>
-    <t>User Login Screen</t>
-  </si>
-  <si>
-    <t>Write SRS for User Login screen</t>
-  </si>
-  <si>
-    <t>Write SDS for User Login screen</t>
-  </si>
-  <si>
-    <t>Write Code for User Login screen</t>
-  </si>
-  <si>
-    <t>Integrate User Login screen with others</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/1</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/4</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/5</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>Task, 1_To Do</t>
-  </si>
-  <si>
-    <t>Task, 2_Doing</t>
-  </si>
-  <si>
-    <t>WP, 2_Doing</t>
-  </si>
-  <si>
-    <t>Task, 3_Done</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows the user to enter email &amp; password to login; on this page, there are also links for user to register new information or reset the password for the case s/he forget it</t>
-  </si>
-  <si>
-    <t>Write detailed functional specification for the User Login screen</t>
-  </si>
-  <si>
-    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Login screen</t>
-  </si>
-  <si>
-    <t>Code &amp; Unit test for the User Login screen</t>
-  </si>
-  <si>
-    <t>Integrate the User Login screen with other screens</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/6</t>
-  </si>
-  <si>
-    <t>Defect, 3_Done</t>
-  </si>
-  <si>
     <t>Home Page</t>
   </si>
   <si>
-    <t>The link User Register is missed on the Mockup of the Home Page screen (SRS document)</t>
-  </si>
-  <si>
-    <t>No User Register link on Home Page screen</t>
-  </si>
-  <si>
-    <t>KienNT</t>
-  </si>
-  <si>
     <t>iter2</t>
   </si>
   <si>
     <t>iter1</t>
   </si>
   <si>
-    <t>TuanTA</t>
+    <t>filter items don't save after filter</t>
+  </si>
+  <si>
+    <t>when customer/guest filter product by specific items, after filter, these items don't save</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Defect, 1_Done</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Add path in product details</t>
+  </si>
+  <si>
+    <t>add path to navigate user</t>
+  </si>
+  <si>
+    <t>Task, 1_Done</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>Not found product on cart</t>
+  </si>
+  <si>
+    <t>cart has product but not display in jsp page</t>
+  </si>
+  <si>
+    <t>Việt Anh</t>
+  </si>
+  <si>
+    <t>Defect 2_Done</t>
+  </si>
+  <si>
+    <t>My Cart</t>
+  </si>
+  <si>
+    <t>customer can search order of other customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghĩa </t>
+  </si>
+  <si>
+    <t>Defect 1_Done</t>
+  </si>
+  <si>
+    <t>Total price of bill not update</t>
+  </si>
+  <si>
+    <t>When customer update quantity of product on cart, total price not change</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Error font of product price</t>
+  </si>
+  <si>
+    <t>Cannot convert price to VND</t>
+  </si>
+  <si>
+    <t>iter 2</t>
+  </si>
+  <si>
+    <t>Defect, 2_Done</t>
+  </si>
+  <si>
+    <t>Add to cart exist product not update quantity</t>
+  </si>
+  <si>
+    <t>When customer add to cart exist product on cart, quantity of this product not updated</t>
+  </si>
+  <si>
+    <t>Cannot generate chart from data</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>iter 3</t>
+  </si>
+  <si>
+    <t>Defect, 3_Doing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -253,9 +254,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -573,28 +571,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B9144B-93AC-0243-B48F-1FC49AC75151}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" style="3" customWidth="1"/>
     <col min="2" max="2" width="45" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="8.296875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.796875" style="3"/>
+    <col min="6" max="7" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="3"/>
+    <col min="9" max="9" width="15.296875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -622,156 +619,141 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="31.2">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
+      <c r="F2" s="6">
+        <v>44967.670138888891</v>
       </c>
       <c r="G2" s="6">
-        <v>44665.204837962963</v>
-      </c>
-      <c r="H2" s="6">
-        <v>44669.697754629633</v>
+        <v>44974.614583333336</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44974.058333333334</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44974.623969907407</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6">
-        <v>44665.206030092595</v>
-      </c>
-      <c r="H3" s="6">
-        <v>44669.697581018518</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44974.392430555556</v>
       </c>
       <c r="G4" s="6">
-        <v>44665.207708333335</v>
-      </c>
-      <c r="H4" s="6">
-        <v>44669.697546296295</v>
+        <v>44974.648240740738</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44974.731863425928</v>
       </c>
       <c r="G5" s="6">
-        <v>44665.208252314813</v>
-      </c>
-      <c r="H5" s="6">
-        <v>44669.697627314818</v>
+        <v>44612.697627314818</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="31.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -780,63 +762,119 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44974.975208333337</v>
       </c>
       <c r="G6" s="6">
-        <v>44665.209236111114</v>
-      </c>
-      <c r="H6" s="6">
-        <v>44669.697650462964</v>
+        <v>44979.051817129628</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6">
+        <v>44975.117569444446</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44614.665706018517</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44975.671041666668</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44614.019178240742</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44988.625208333331</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44665.209236111114</v>
-      </c>
-      <c r="H7" s="6">
-        <v>44669.697650462964</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/document/Issue Report.xlsx
+++ b/document/Issue Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F21F3-1001-4E11-A90A-D8A8A5FBCF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71409A5E-BD31-47CF-925E-10A06D94C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -82,18 +82,6 @@
   </si>
   <si>
     <t>Product List</t>
-  </si>
-  <si>
-    <t>Add path in product details</t>
-  </si>
-  <si>
-    <t>add path to navigate user</t>
-  </si>
-  <si>
-    <t>Task, 1_Done</t>
-  </si>
-  <si>
-    <t>Product Details</t>
   </si>
   <si>
     <t>Not found product on cart</t>
@@ -571,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B9144B-93AC-0243-B48F-1FC49AC75151}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -669,27 +657,27 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
-        <v>44974.058333333334</v>
+        <v>44974.392430555556</v>
       </c>
       <c r="G3" s="6">
-        <v>44974.623969907407</v>
+        <v>44974.648240740738</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="26.4">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -704,24 +692,24 @@
         <v>25</v>
       </c>
       <c r="F4" s="6">
-        <v>44974.392430555556</v>
+        <v>44974.731863425928</v>
       </c>
       <c r="G4" s="6">
-        <v>44974.648240740738</v>
+        <v>44612.697627314818</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.2">
+      <c r="A5" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.4">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -736,27 +724,27 @@
         <v>29</v>
       </c>
       <c r="F5" s="6">
-        <v>44974.731863425928</v>
+        <v>44974.975208333337</v>
       </c>
       <c r="G5" s="6">
-        <v>44612.697627314818</v>
+        <v>44979.051817129628</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -765,25 +753,25 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44975.117569444446</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44614.665706018517</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6">
-        <v>44974.975208333337</v>
-      </c>
-      <c r="G6" s="6">
-        <v>44979.051817129628</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -797,84 +785,52 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44975.671041666668</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44614.019178240742</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6">
-        <v>44975.117569444446</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44614.665706018517</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>44975.671041666668</v>
-      </c>
-      <c r="G8" s="6">
-        <v>44614.019178240742</v>
-      </c>
+        <v>44988.625208333331</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44988.625208333331</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/document/Issue Report.xlsx
+++ b/document/Issue Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71409A5E-BD31-47CF-925E-10A06D94C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D8CA5-A0CB-405C-A423-726C1DE1DFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Product List</t>
   </si>
   <si>
-    <t>Not found product on cart</t>
-  </si>
-  <si>
     <t>cart has product but not display in jsp page</t>
   </si>
   <si>
@@ -148,13 +145,67 @@
   </si>
   <si>
     <t>Defect, 3_Doing</t>
+  </si>
+  <si>
+    <t>not found product on cart</t>
+  </si>
+  <si>
+    <t>product not reduce quantity after customes/guest ordered</t>
+  </si>
+  <si>
+    <t>iter 4</t>
+  </si>
+  <si>
+    <t>Defect, 4_Doing</t>
+  </si>
+  <si>
+    <t>Payment Page</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Defect, 4_Todo</t>
+  </si>
+  <si>
+    <t>after customer/guest orderd, database must be reduce quantity of product but not</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Defect, 4_Done</t>
+  </si>
+  <si>
+    <t>Register User</t>
+  </si>
+  <si>
+    <t>not validate phone number</t>
+  </si>
+  <si>
+    <t>phone number must be contain number only</t>
+  </si>
+  <si>
+    <t>order product not available</t>
+  </si>
+  <si>
+    <t>order quantity of product greater than product exist on warehouse</t>
+  </si>
+  <si>
+    <t>Product Details, My Cart</t>
+  </si>
+  <si>
+    <t>filter by price ascending or price decreasing</t>
+  </si>
+  <si>
+    <t>after filter by price ascending or price decreasing, then click on next page, filter will be removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +232,11 @@
       <color rgb="FFC00000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,12 +294,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B9144B-93AC-0243-B48F-1FC49AC75151}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -607,12 +663,12 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -627,10 +683,10 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>44967.670138888891</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>44974.614583333336</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -644,11 +700,11 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -657,30 +713,30 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
         <v>44974.392430555556</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>44974.648240740738</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.4">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -689,30 +745,30 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5">
         <v>44974.731863425928</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>44612.697627314818</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="31.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -721,30 +777,30 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5">
         <v>44974.975208333337</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>44979.051817129628</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -753,19 +809,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
         <v>44975.117569444446</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>44614.665706018517</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>11</v>
@@ -773,10 +829,10 @@
     </row>
     <row r="7" spans="1:10" ht="31.2">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -785,55 +841,174 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5">
         <v>44975.671041666668</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>44614.019178240742</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>44988.625208333331</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44995.053680555553</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44995.055763888886</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44995.055763888886</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>44995.055763888886</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.2">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>44995.055763888886</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/Issue Report.xlsx
+++ b/document/Issue Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D8CA5-A0CB-405C-A423-726C1DE1DFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633BA74-3F8F-491B-9BED-21197F32DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -138,15 +138,9 @@
     <t>Admin Dashboard</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>iter 3</t>
   </si>
   <si>
-    <t>Defect, 3_Doing</t>
-  </si>
-  <si>
     <t>not found product on cart</t>
   </si>
   <si>
@@ -156,24 +150,12 @@
     <t>iter 4</t>
   </si>
   <si>
-    <t>Defect, 4_Doing</t>
-  </si>
-  <si>
     <t>Payment Page</t>
   </si>
   <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>Defect, 4_Todo</t>
-  </si>
-  <si>
     <t>after customer/guest orderd, database must be reduce quantity of product but not</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Defect, 4_Done</t>
   </si>
   <si>
@@ -199,6 +181,9 @@
   </si>
   <si>
     <t>after filter by price ascending or price decreasing, then click on next page, filter will be removed</t>
+  </si>
+  <si>
+    <t>Defect, 3_Done</t>
   </si>
 </sst>
 </file>
@@ -619,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -701,7 +686,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -870,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -880,10 +865,10 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>36</v>
@@ -891,16 +876,16 @@
     </row>
     <row r="9" spans="1:10" ht="31.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
@@ -912,27 +897,27 @@
         <v>44995.055763888886</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>28</v>
@@ -940,68 +925,78 @@
       <c r="F10" s="5">
         <v>44995.055763888886</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>45005.055763888886</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.2">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="5">
         <v>44995.055763888886</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>45005.055763888886</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="5">
         <v>44995.055763888886</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>45005.055763888886</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
